--- a/biology/Histoire de la zoologie et de la botanique/Ignaz_von_Szyszyłowicz/Ignaz_von_Szyszyłowicz.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Ignaz_von_Szyszyłowicz/Ignaz_von_Szyszyłowicz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ignaz_von_Szyszy%C5%82owicz</t>
+          <t>Ignaz_von_Szyszyłowicz</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ignaz von Szyszyłowicz (30 juillet 1857-17 février 1910), également connu sous le nom  'Ignacy Szyszyłowicz' , est un botaniste polonais né à Granica (Sosnowiec)[1]. Il a contribué à la partie III.6 de  Caryocaraceae, marcgraviaceae, théacées, strasburgeriaceae  et aux travaux d'Engler et Karl Prantl pour Die natürlichen Pflanzenfamilien  ( Les familles de plantes naturelles ), Leipzig, 1887.
-Szyszyłowicz est assistant bénévole à l'Hofmuseum de Vienne, de 1885 à 1891. Il est ensuite professeur de botanique et directeur du collège d'agriculture du Lemberg de 1891 à 1909. Il devient inspecteur des écoles d'agriculture en Galicie en 1898. Szyszyłowicz est mort à Lemberg[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ignaz von Szyszyłowicz (30 juillet 1857-17 février 1910), également connu sous le nom  'Ignacy Szyszyłowicz' , est un botaniste polonais né à Granica (Sosnowiec). Il a contribué à la partie III.6 de  Caryocaraceae, marcgraviaceae, théacées, strasburgeriaceae  et aux travaux d'Engler et Karl Prantl pour Die natürlichen Pflanzenfamilien  ( Les familles de plantes naturelles ), Leipzig, 1887.
+Szyszyłowicz est assistant bénévole à l'Hofmuseum de Vienne, de 1885 à 1891. Il est ensuite professeur de botanique et directeur du collège d'agriculture du Lemberg de 1891 à 1909. Il devient inspecteur des écoles d'agriculture en Galicie en 1898. Szyszyłowicz est mort à Lemberg.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ignaz_von_Szyszy%C5%82owicz</t>
+          <t>Ignaz_von_Szyszyłowicz</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Polypetalae disciflorae Rehmannianae (Disque floral de Polypetalae Rehmannianae...): Sive, Enumeratio Linearum, Malpighiacearum, Zygophyllearum, etc., A. Rehmann, Annis 1875-1880 en Afrique australi extratropica collectarum , à partir des échantillons recueillis par Anton Rehmann de 1875  à 1880, au cours d'un voyage en Afrique du Sud. Les collections de Rehmann provenaient principalement du Natal et du Transvaal[2].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Polypetalae disciflorae Rehmannianae (Disque floral de Polypetalae Rehmannianae...): Sive, Enumeratio Linearum, Malpighiacearum, Zygophyllearum, etc., A. Rehmann, Annis 1875-1880 en Afrique australi extratropica collectarum , à partir des échantillons recueillis par Anton Rehmann de 1875  à 1880, au cours d'un voyage en Afrique du Sud. Les collections de Rehmann provenaient principalement du Natal et du Transvaal.</t>
         </is>
       </c>
     </row>
